--- a/team_specific_matrix/BYU_B.xlsx
+++ b/team_specific_matrix/BYU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1924882629107981</v>
+        <v>0.1953125</v>
       </c>
       <c r="C2">
-        <v>0.5305164319248826</v>
+        <v>0.52734375</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03755868544600939</v>
+        <v>0.0390625</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1220657276995305</v>
+        <v>0.1171875</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1173708920187793</v>
+        <v>0.12109375</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01626016260162602</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="C3">
-        <v>0.04065040650406504</v>
+        <v>0.03401360544217687</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06504065040650407</v>
+        <v>0.05442176870748299</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7398373983739838</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1382113821138211</v>
+        <v>0.163265306122449</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07407407407407407</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7777777777777778</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1481481481481481</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08045977011494253</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005747126436781609</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03448275862068965</v>
+        <v>0.03603603603603604</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2758620689655172</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02873563218390805</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1379310344827586</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="R6">
-        <v>0.05172413793103448</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="S6">
-        <v>0.3850574712643678</v>
+        <v>0.4009009009009009</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0576923076923077</v>
+        <v>0.06428571428571428</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01923076923076923</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0576923076923077</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1923076923076923</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1826923076923077</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R7">
-        <v>0.08653846153846154</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S7">
-        <v>0.4038461538461539</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08256880733944955</v>
+        <v>0.08353221957040573</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02446483180428135</v>
+        <v>0.02147971360381861</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07339449541284404</v>
+        <v>0.06682577565632458</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1039755351681957</v>
+        <v>0.0954653937947494</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02140672782874618</v>
+        <v>0.02386634844868735</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1620795107033639</v>
+        <v>0.1718377088305489</v>
       </c>
       <c r="R8">
-        <v>0.09480122324159021</v>
+        <v>0.08353221957040573</v>
       </c>
       <c r="S8">
-        <v>0.4373088685015291</v>
+        <v>0.4534606205250596</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05660377358490566</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009433962264150943</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E9">
-        <v>0.004716981132075472</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="F9">
-        <v>0.08018867924528301</v>
+        <v>0.08</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1084905660377359</v>
+        <v>0.1018181818181818</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01415094339622642</v>
+        <v>0.01454545454545455</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2405660377358491</v>
+        <v>0.2109090909090909</v>
       </c>
       <c r="R9">
-        <v>0.08018867924528301</v>
+        <v>0.08727272727272728</v>
       </c>
       <c r="S9">
-        <v>0.4056603773584906</v>
+        <v>0.4290909090909091</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1235827664399093</v>
+        <v>0.1217228464419476</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.018140589569161</v>
+        <v>0.01779026217228464</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07823129251700681</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.126984126984127</v>
+        <v>0.1245318352059925</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01927437641723356</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2052154195011338</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="R10">
-        <v>0.07709750566893424</v>
+        <v>0.06647940074906367</v>
       </c>
       <c r="S10">
-        <v>0.3514739229024944</v>
+        <v>0.3548689138576779</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1082802547770701</v>
+        <v>0.1133004926108374</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1401273885350318</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="K11">
-        <v>0.1528662420382166</v>
+        <v>0.1477832512315271</v>
       </c>
       <c r="L11">
-        <v>0.5859872611464968</v>
+        <v>0.5960591133004927</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01273885350318471</v>
+        <v>0.009852216748768473</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7058823529411765</v>
+        <v>0.7404580152671756</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1568627450980392</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="K12">
-        <v>0.0392156862745098</v>
+        <v>0.04580152671755725</v>
       </c>
       <c r="L12">
-        <v>0.08823529411764706</v>
+        <v>0.06870229007633588</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.009803921568627451</v>
+        <v>0.01526717557251908</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6521739130434783</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2608695652173913</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08695652173913043</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03267973856209151</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1568627450980392</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="I15">
-        <v>0.0915032679738562</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="J15">
-        <v>0.3725490196078431</v>
+        <v>0.3505154639175257</v>
       </c>
       <c r="K15">
-        <v>0.05228758169934641</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.006535947712418301</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="O15">
-        <v>0.0392156862745098</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2483660130718954</v>
+        <v>0.2680412371134021</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05970149253731343</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1119402985074627</v>
+        <v>0.120253164556962</v>
       </c>
       <c r="I16">
-        <v>0.1119402985074627</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="J16">
-        <v>0.373134328358209</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="K16">
-        <v>0.09701492537313433</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007462686567164179</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="N16">
-        <v>0.01492537313432836</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="O16">
-        <v>0.03731343283582089</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1865671641791045</v>
+        <v>0.2278481012658228</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009202453987730062</v>
+        <v>0.01210653753026634</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1809815950920245</v>
+        <v>0.1912832929782082</v>
       </c>
       <c r="I17">
-        <v>0.1257668711656442</v>
+        <v>0.1283292978208233</v>
       </c>
       <c r="J17">
-        <v>0.4110429447852761</v>
+        <v>0.387409200968523</v>
       </c>
       <c r="K17">
-        <v>0.07975460122699386</v>
+        <v>0.08232445520581114</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01226993865030675</v>
+        <v>0.01210653753026634</v>
       </c>
       <c r="N17">
-        <v>0.003067484662576687</v>
+        <v>0.002421307506053269</v>
       </c>
       <c r="O17">
-        <v>0.05214723926380368</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1257668711656442</v>
+        <v>0.1331719128329298</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02985074626865672</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.208955223880597</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="I18">
-        <v>0.1194029850746269</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="J18">
-        <v>0.3208955223880597</v>
+        <v>0.3486842105263158</v>
       </c>
       <c r="K18">
-        <v>0.1268656716417911</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007462686567164179</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06716417910447761</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1194029850746269</v>
+        <v>0.1118421052631579</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01273885350318471</v>
+        <v>0.01377633711507293</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2101910828025478</v>
+        <v>0.2074554294975689</v>
       </c>
       <c r="I19">
-        <v>0.1316348195329087</v>
+        <v>0.1353322528363047</v>
       </c>
       <c r="J19">
-        <v>0.3481953290870488</v>
+        <v>0.3354943273905997</v>
       </c>
       <c r="K19">
-        <v>0.07006369426751592</v>
+        <v>0.0753646677471637</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01804670912951168</v>
+        <v>0.0186385737439222</v>
       </c>
       <c r="N19">
-        <v>0.003184713375796179</v>
+        <v>0.002431118314424636</v>
       </c>
       <c r="O19">
-        <v>0.07006369426751592</v>
+        <v>0.07212317666126418</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1358811040339703</v>
+        <v>0.1393841166936791</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/BYU_B.xlsx
+++ b/team_specific_matrix/BYU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1953125</v>
+        <v>0.204778156996587</v>
       </c>
       <c r="C2">
-        <v>0.52734375</v>
+        <v>0.5221843003412969</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0390625</v>
+        <v>0.03412969283276451</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1171875</v>
+        <v>0.1160409556313993</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.12109375</v>
+        <v>0.1228668941979522</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01360544217687075</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C3">
-        <v>0.03401360544217687</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05442176870748299</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7346938775510204</v>
+        <v>0.7349397590361446</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.163265306122449</v>
+        <v>0.1686746987951807</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08823529411764706</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7058823529411765</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2058823529411765</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07207207207207207</v>
+        <v>0.07112970711297072</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004504504504504504</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004184100418410041</v>
       </c>
       <c r="F6">
-        <v>0.03603603603603604</v>
+        <v>0.03765690376569038</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2612612612612613</v>
+        <v>0.2510460251046025</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02702702702702703</v>
+        <v>0.03347280334728033</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1486486486486487</v>
+        <v>0.1548117154811715</v>
       </c>
       <c r="R6">
-        <v>0.04954954954954955</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="S6">
-        <v>0.4009009009009009</v>
+        <v>0.393305439330544</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06428571428571428</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01428571428571429</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1642857142857143</v>
+        <v>0.1753246753246753</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1714285714285714</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="R7">
-        <v>0.07142857142857142</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="S7">
-        <v>0.4642857142857143</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08353221957040573</v>
+        <v>0.09354120267260579</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02147971360381861</v>
+        <v>0.0200445434298441</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06682577565632458</v>
+        <v>0.0623608017817372</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0954653937947494</v>
+        <v>0.09354120267260579</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02386634844868735</v>
+        <v>0.022271714922049</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1718377088305489</v>
+        <v>0.1826280623608018</v>
       </c>
       <c r="R8">
-        <v>0.08353221957040573</v>
+        <v>0.08240534521158129</v>
       </c>
       <c r="S8">
-        <v>0.4534606205250596</v>
+        <v>0.4432071269487751</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05454545454545454</v>
+        <v>0.05460750853242321</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01818181818181818</v>
+        <v>0.01706484641638225</v>
       </c>
       <c r="E9">
-        <v>0.003636363636363636</v>
+        <v>0.003412969283276451</v>
       </c>
       <c r="F9">
-        <v>0.08</v>
+        <v>0.07508532423208192</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1018181818181818</v>
+        <v>0.09556313993174062</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01454545454545455</v>
+        <v>0.0136518771331058</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2109090909090909</v>
+        <v>0.2081911262798635</v>
       </c>
       <c r="R9">
-        <v>0.08727272727272728</v>
+        <v>0.08532423208191127</v>
       </c>
       <c r="S9">
-        <v>0.4290909090909091</v>
+        <v>0.447098976109215</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1217228464419476</v>
+        <v>0.1280276816608996</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01779026217228464</v>
+        <v>0.01730103806228374</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08426966292134831</v>
+        <v>0.08564013840830449</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1245318352059925</v>
+        <v>0.1228373702422145</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01685393258426966</v>
+        <v>0.01730103806228374</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2134831460674157</v>
+        <v>0.2119377162629758</v>
       </c>
       <c r="R10">
-        <v>0.06647940074906367</v>
+        <v>0.06660899653979238</v>
       </c>
       <c r="S10">
-        <v>0.3548689138576779</v>
+        <v>0.3503460207612457</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1133004926108374</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1330049261083744</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="K11">
-        <v>0.1477832512315271</v>
+        <v>0.1535087719298246</v>
       </c>
       <c r="L11">
-        <v>0.5960591133004927</v>
+        <v>0.5921052631578947</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009852216748768473</v>
+        <v>0.008771929824561403</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7404580152671756</v>
+        <v>0.7517241379310344</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1297709923664122</v>
+        <v>0.1310344827586207</v>
       </c>
       <c r="K12">
-        <v>0.04580152671755725</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="L12">
-        <v>0.06870229007633588</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01526717557251908</v>
+        <v>0.01379310344827586</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2333333333333333</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03092783505154639</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1649484536082474</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="I15">
-        <v>0.1030927835051546</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="J15">
-        <v>0.3505154639175257</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.04123711340206185</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="N15">
-        <v>0.005154639175257732</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="O15">
-        <v>0.03608247422680412</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2680412371134021</v>
+        <v>0.2801932367149759</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05063291139240506</v>
+        <v>0.05027932960893855</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.120253164556962</v>
+        <v>0.1229050279329609</v>
       </c>
       <c r="I16">
-        <v>0.1075949367088608</v>
+        <v>0.106145251396648</v>
       </c>
       <c r="J16">
-        <v>0.3417721518987342</v>
+        <v>0.3407821229050279</v>
       </c>
       <c r="K16">
-        <v>0.1012658227848101</v>
+        <v>0.111731843575419</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006329113924050633</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="N16">
-        <v>0.01265822784810127</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="O16">
-        <v>0.03164556962025317</v>
+        <v>0.03910614525139665</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2278481012658228</v>
+        <v>0.2122905027932961</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01210653753026634</v>
+        <v>0.0133630289532294</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1912832929782082</v>
+        <v>0.1915367483296214</v>
       </c>
       <c r="I17">
-        <v>0.1283292978208233</v>
+        <v>0.1269487750556793</v>
       </c>
       <c r="J17">
-        <v>0.387409200968523</v>
+        <v>0.3875278396436526</v>
       </c>
       <c r="K17">
-        <v>0.08232445520581114</v>
+        <v>0.08240534521158129</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01210653753026634</v>
+        <v>0.0111358574610245</v>
       </c>
       <c r="N17">
-        <v>0.002421307506053269</v>
+        <v>0.0022271714922049</v>
       </c>
       <c r="O17">
-        <v>0.05084745762711865</v>
+        <v>0.0467706013363029</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1331719128329298</v>
+        <v>0.1380846325167038</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03289473684210526</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1973684210526316</v>
+        <v>0.1925465838509317</v>
       </c>
       <c r="I18">
-        <v>0.1118421052631579</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="J18">
-        <v>0.3486842105263158</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="K18">
-        <v>0.1118421052631579</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006578947368421052</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07894736842105263</v>
+        <v>0.07453416149068323</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1118421052631579</v>
+        <v>0.1118012422360248</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01377633711507293</v>
+        <v>0.01353383458646617</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2074554294975689</v>
+        <v>0.2045112781954887</v>
       </c>
       <c r="I19">
-        <v>0.1353322528363047</v>
+        <v>0.1330827067669173</v>
       </c>
       <c r="J19">
-        <v>0.3354943273905997</v>
+        <v>0.3406015037593985</v>
       </c>
       <c r="K19">
-        <v>0.0753646677471637</v>
+        <v>0.07819548872180451</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0186385737439222</v>
+        <v>0.01729323308270677</v>
       </c>
       <c r="N19">
-        <v>0.002431118314424636</v>
+        <v>0.002255639097744361</v>
       </c>
       <c r="O19">
-        <v>0.07212317666126418</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1393841166936791</v>
+        <v>0.1390977443609022</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/BYU_B.xlsx
+++ b/team_specific_matrix/BYU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.204778156996587</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="C2">
-        <v>0.5221843003412969</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03412969283276451</v>
+        <v>0.03525641025641026</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1160409556313993</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1228668941979522</v>
+        <v>0.1217948717948718</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01204819277108434</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C3">
-        <v>0.03614457831325301</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04819277108433735</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7349397590361446</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1686746987951807</v>
+        <v>0.1627906976744186</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1052631578947368</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7105263157894737</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1842105263157895</v>
+        <v>0.1707317073170732</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07112970711297072</v>
+        <v>0.06589147286821706</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008368200836820083</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="E6">
-        <v>0.004184100418410041</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="F6">
-        <v>0.03765690376569038</v>
+        <v>0.04263565891472868</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2510460251046025</v>
+        <v>0.251937984496124</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03347280334728033</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1548117154811715</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="R6">
-        <v>0.04602510460251046</v>
+        <v>0.04263565891472868</v>
       </c>
       <c r="S6">
-        <v>0.393305439330544</v>
+        <v>0.4031007751937984</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06493506493506493</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02597402597402598</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05194805194805195</v>
+        <v>0.05917159763313609</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1753246753246753</v>
+        <v>0.1834319526627219</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1623376623376623</v>
+        <v>0.1597633136094675</v>
       </c>
       <c r="R7">
-        <v>0.06493506493506493</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="S7">
-        <v>0.4545454545454545</v>
+        <v>0.4378698224852071</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09354120267260579</v>
+        <v>0.08713692946058091</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0200445434298441</v>
+        <v>0.01867219917012448</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0623608017817372</v>
+        <v>0.06431535269709543</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09354120267260579</v>
+        <v>0.0975103734439834</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.022271714922049</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1826280623608018</v>
+        <v>0.1804979253112033</v>
       </c>
       <c r="R8">
-        <v>0.08240534521158129</v>
+        <v>0.08506224066390042</v>
       </c>
       <c r="S8">
-        <v>0.4432071269487751</v>
+        <v>0.4460580912863071</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05460750853242321</v>
+        <v>0.05161290322580645</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01706484641638225</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E9">
-        <v>0.003412969283276451</v>
+        <v>0.003225806451612903</v>
       </c>
       <c r="F9">
-        <v>0.07508532423208192</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09556313993174062</v>
+        <v>0.0935483870967742</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0136518771331058</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2081911262798635</v>
+        <v>0.2064516129032258</v>
       </c>
       <c r="R9">
-        <v>0.08532423208191127</v>
+        <v>0.08387096774193549</v>
       </c>
       <c r="S9">
-        <v>0.447098976109215</v>
+        <v>0.4548387096774194</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1280276816608996</v>
+        <v>0.1266932270916335</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01730103806228374</v>
+        <v>0.01832669322709163</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08564013840830449</v>
+        <v>0.08366533864541832</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1228373702422145</v>
+        <v>0.1243027888446215</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01730103806228374</v>
+        <v>0.01593625498007968</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2119377162629758</v>
+        <v>0.2143426294820717</v>
       </c>
       <c r="R10">
-        <v>0.06660899653979238</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="S10">
-        <v>0.3503460207612457</v>
+        <v>0.349003984063745</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1140350877192982</v>
+        <v>0.1264822134387352</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.131578947368421</v>
+        <v>0.1264822134387352</v>
       </c>
       <c r="K11">
-        <v>0.1535087719298246</v>
+        <v>0.158102766798419</v>
       </c>
       <c r="L11">
-        <v>0.5921052631578947</v>
+        <v>0.5731225296442688</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008771929824561403</v>
+        <v>0.0158102766798419</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7517241379310344</v>
+        <v>0.7548387096774194</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1310344827586207</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="K12">
-        <v>0.04137931034482759</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="L12">
-        <v>0.06206896551724138</v>
+        <v>0.05806451612903226</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01379310344827586</v>
+        <v>0.01935483870967742</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6774193548387096</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2580645161290323</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06451612903225806</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02898550724637681</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1739130434782609</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="I15">
-        <v>0.1014492753623188</v>
+        <v>0.1050228310502283</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3242009132420091</v>
       </c>
       <c r="K15">
-        <v>0.03864734299516908</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004830917874396135</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N15">
-        <v>0.004830917874396135</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="O15">
-        <v>0.03381642512077294</v>
+        <v>0.0365296803652968</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2801932367149759</v>
+        <v>0.2694063926940639</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05027932960893855</v>
+        <v>0.04712041884816754</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1229050279329609</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="I16">
-        <v>0.106145251396648</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="J16">
-        <v>0.3407821229050279</v>
+        <v>0.3507853403141361</v>
       </c>
       <c r="K16">
-        <v>0.111731843575419</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.00558659217877095</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="N16">
-        <v>0.0111731843575419</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="O16">
-        <v>0.03910614525139665</v>
+        <v>0.0418848167539267</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2122905027932961</v>
+        <v>0.2146596858638743</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0133630289532294</v>
+        <v>0.01446280991735537</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1915367483296214</v>
+        <v>0.1880165289256198</v>
       </c>
       <c r="I17">
-        <v>0.1269487750556793</v>
+        <v>0.1260330578512397</v>
       </c>
       <c r="J17">
-        <v>0.3875278396436526</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="K17">
-        <v>0.08240534521158129</v>
+        <v>0.08884297520661157</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0111358574610245</v>
+        <v>0.01033057851239669</v>
       </c>
       <c r="N17">
-        <v>0.0022271714922049</v>
+        <v>0.002066115702479339</v>
       </c>
       <c r="O17">
-        <v>0.0467706013363029</v>
+        <v>0.04752066115702479</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1380846325167038</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03105590062111801</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1925465838509317</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="I18">
-        <v>0.1180124223602484</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="J18">
-        <v>0.3478260869565217</v>
+        <v>0.3485714285714286</v>
       </c>
       <c r="K18">
-        <v>0.1180124223602484</v>
+        <v>0.12</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006211180124223602</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07453416149068323</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1118012422360248</v>
+        <v>0.1085714285714286</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01353383458646617</v>
+        <v>0.01401541695865452</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2045112781954887</v>
+        <v>0.2053258584442887</v>
       </c>
       <c r="I19">
-        <v>0.1330827067669173</v>
+        <v>0.1317449194113525</v>
       </c>
       <c r="J19">
-        <v>0.3406015037593985</v>
+        <v>0.3454800280308339</v>
       </c>
       <c r="K19">
-        <v>0.07819548872180451</v>
+        <v>0.07848633496846531</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01729323308270677</v>
+        <v>0.0161177295024527</v>
       </c>
       <c r="N19">
-        <v>0.002255639097744361</v>
+        <v>0.002102312543798178</v>
       </c>
       <c r="O19">
-        <v>0.07142857142857142</v>
+        <v>0.06937631394533987</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1390977443609022</v>
+        <v>0.1373510861948143</v>
       </c>
     </row>
   </sheetData>
